--- a/(UEL) cube_C3D8T_multiphysics/processing_input_notched_plate/properties.xlsx
+++ b/(UEL) cube_C3D8T_multiphysics/processing_input_notched_plate/properties.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\nguyenb5\Abaqus-UEL-Multiphysics\(UEL) cube_C3D8T_multiphysics\processing_input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4688631D-DA2B-422D-B63A-A1A1014ED769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>field_descriptions</t>
   </si>
@@ -34,18 +28,18 @@
     <t>mechanical_values</t>
   </si>
   <si>
+    <t>hydrogen_diffusion_descriptions</t>
+  </si>
+  <si>
+    <t>hydrogen_diffusion_values</t>
+  </si>
+  <si>
     <t>heat_transfer_descriptions</t>
   </si>
   <si>
     <t>heat_transfer_values</t>
   </si>
   <si>
-    <t>hydrogen_diffusion_descriptions</t>
-  </si>
-  <si>
-    <t>hydrogen_diffusion_values</t>
-  </si>
-  <si>
     <t>phase_field_damage_descriptions</t>
   </si>
   <si>
@@ -61,57 +55,57 @@
     <t>UMAT_model (1 - elastic, 2 - isotropic vM, 3 - enHill48)</t>
   </si>
   <si>
+    <t>Equilibrium equation (1 - Oriani's equation | 2 - McNabb-Foster's equation)</t>
+  </si>
+  <si>
     <t>Density - rho_temp (kg/m^3)</t>
   </si>
   <si>
-    <t>Equilibrium equation (1 - Oriani's equation | 2 - McNabb-Foster's equation)</t>
-  </si>
-  <si>
     <t>Length scale - length_scale (m)</t>
   </si>
   <si>
     <t>1.0e-3</t>
   </si>
   <si>
+    <t>hydro_field (1 - ON, 0 - OFF)</t>
+  </si>
+  <si>
+    <t>Young's modulus - E (Pa)</t>
+  </si>
+  <si>
+    <t>210.0e+9</t>
+  </si>
+  <si>
+    <t>scaling_factor - SFD (dimless)</t>
+  </si>
+  <si>
+    <t>1.0e0</t>
+  </si>
+  <si>
+    <t>Specific heat - cp_temp (N*m/(kg*K))</t>
+  </si>
+  <si>
+    <t>Critical energy release rate without hydrogen - Gc0 (N*m/m^2)</t>
+  </si>
+  <si>
+    <t>405.0e3</t>
+  </si>
+  <si>
     <t>temp_field (1 - ON, 0 - OFF)</t>
   </si>
   <si>
-    <t>Young's modulus - E (Pa)</t>
-  </si>
-  <si>
-    <t>210.0e+9</t>
-  </si>
-  <si>
-    <t>Specific heat - cp_temp (N*m/(kg*K))</t>
-  </si>
-  <si>
-    <t>scaling_factor - SFD (dimless)</t>
-  </si>
-  <si>
-    <t>1.0e0</t>
-  </si>
-  <si>
-    <t>Critical energy release rate without hydrogen - Gc0 (N*m/m^2)</t>
-  </si>
-  <si>
-    <t>405.0e3</t>
-  </si>
-  <si>
-    <t>hydro_field (1 - ON, 0 - OFF)</t>
-  </si>
-  <si>
     <t>Poisson ratio - nu (dimless)</t>
   </si>
   <si>
     <t>0.3e0</t>
   </si>
   <si>
+    <t>crystal_structure (1 - BCC | 2 - FCC)</t>
+  </si>
+  <si>
     <t>Conductivity - k_temp (N/(s*K))</t>
   </si>
   <si>
-    <t>crystal_structure (1 - BCC | 2 - FCC)</t>
-  </si>
-  <si>
     <t>Well-conditioning parameter - xkap (dimless)</t>
   </si>
   <si>
@@ -133,9 +127,15 @@
     <t>0.89e0</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Lattice parameter for FCC - a_lattice_FCC (m)</t>
   </si>
   <si>
+    <t>3.65e-10</t>
+  </si>
+  <si>
     <t>Gibbs free energy difference between the decohering interface and the surrounding material - delta_g_b0 (N*m/mol)</t>
   </si>
   <si>
@@ -157,6 +157,12 @@
     <t>8.31446e0</t>
   </si>
   <si>
+    <t>Temperature mode (1 - constant | 2 - predefined field | 3 - heat transfer)</t>
+  </si>
+  <si>
+    <t>Temperature - temp (K)</t>
+  </si>
+  <si>
     <t>300.0e0</t>
   </si>
   <si>
@@ -166,6 +172,9 @@
     <t>2e-06</t>
   </si>
   <si>
+    <t>DL formula (1 - directly using DL | 2 - using DL = DL0 * exp(-WB_L/RT))</t>
+  </si>
+  <si>
     <t>Diffusion coefficient - DL (m^2/s)</t>
   </si>
   <si>
@@ -202,9 +211,24 @@
     <t>20.0e0</t>
   </si>
   <si>
+    <t>Initial chemical potential - mu_potential_0 (J/mol)</t>
+  </si>
+  <si>
     <t>0.0e0</t>
   </si>
   <si>
+    <t>dis_trap_active (0 - inactive | 1 - active)</t>
+  </si>
+  <si>
+    <t>gb_trap_active (0 - inactive | 1 - active)</t>
+  </si>
+  <si>
+    <t>carb_trap_active (0 - inactive | 1 - active)</t>
+  </si>
+  <si>
+    <t>void_trap_active (0 - inactive | 1 - active)</t>
+  </si>
+  <si>
     <t>dis_trap_mode (1 - kumnick, krom | 2 - sofronis, dadfarnia)</t>
   </si>
   <si>
@@ -220,40 +244,40 @@
     <t xml:space="preserve">1.0e+10 </t>
   </si>
   <si>
+    <t>Number of interstitial sites per trap site (dislocations) - alpha_dis (dimless)</t>
+  </si>
+  <si>
+    <t>Binding energy of hydrogen to dislocations - WB_dis (N*m/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -20e+3</t>
+  </si>
+  <si>
+    <t>Number of interstitial sites per trap site (grain boundary) - alpha_gb (dimless)</t>
+  </si>
+  <si>
+    <t>Number of traps (grain boundary) - NT_gb (1/m^3)</t>
+  </si>
+  <si>
     <t>8.464e+22</t>
   </si>
   <si>
-    <t>Temperature mode (1 - constant | 2 - predefined field | 3 - heat transfer)</t>
-  </si>
-  <si>
-    <t>Number of interstitial sites per trap site (dislocations) - alpha_dis (dimless)</t>
-  </si>
-  <si>
-    <t>Binding energy of hydrogen to dislocations - WB_dis (N*m/mol)</t>
-  </si>
-  <si>
-    <t>Number of interstitial sites per trap site (grain boundary) - alpha_gb (dimless)</t>
-  </si>
-  <si>
-    <t>Number of traps (grain boundary) - NT_gb (1/m^3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -20e+3</t>
+    <t>Binding energy of hydrogens (grain boundary) - WB_gb (N*m/mol)</t>
   </si>
   <si>
     <t>-30e+3</t>
   </si>
   <si>
-    <t>Binding energy of hydrogens (grain boundary) - WB_gb (N*m/mol)</t>
-  </si>
-  <si>
     <t>Number of interstitial sites per trap site (carbide) - alpha_carb (dimless)</t>
   </si>
   <si>
+    <t>Trap density (carbides) - NT_carb (1/m^3)</t>
+  </si>
+  <si>
     <t>Binding energy of hydrogens (carbides) - WB_carb (N*m/mol)</t>
   </si>
   <si>
-    <t>Trap density (carbides) - NT_carb (1/m^3)</t>
+    <t>-45e+3</t>
   </si>
   <si>
     <t>Number of interstitial sites per trap site (vacancies/microvoid) - alpha_void (dimless)</t>
@@ -262,46 +286,20 @@
     <t>Trap density (vacancies/microvoid) - NT_void (1/m^3)</t>
   </si>
   <si>
+    <t>1.0e+23</t>
+  </si>
+  <si>
     <t>Binding energy of hydrogens (vacancies/microvoid) - WB_void (N*m/mol)</t>
   </si>
   <si>
-    <t>-45e+3</t>
-  </si>
-  <si>
     <t>-60e+3</t>
-  </si>
-  <si>
-    <t>1.0e+23</t>
-  </si>
-  <si>
-    <t>gb_trap_active (0 - inactive | 1 - active)</t>
-  </si>
-  <si>
-    <t>dis_trap_active (0 - inactive | 1 - active)</t>
-  </si>
-  <si>
-    <t>carb_trap_active (0 - inactive | 1 - active)</t>
-  </si>
-  <si>
-    <t>void_trap_active (0 - inactive | 1 - active)</t>
-  </si>
-  <si>
-    <t>3.65e-10</t>
-  </si>
-  <si>
-    <t>Temperature - temp (K)</t>
-  </si>
-  <si>
-    <t>DL formula (1 - directly using DL | 2 - using DL = DL0 * exp(-WB_L/RT))</t>
-  </si>
-  <si>
-    <t>Initial chemical potential - mu_potential_0 (J/mol)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,60 +370,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -436,10 +439,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -477,71 +480,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,7 +572,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -592,11 +595,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -605,13 +608,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -621,7 +624,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -630,7 +633,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -639,7 +642,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -647,10 +650,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -715,31 +718,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="103.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" style="14" customWidth="1"/>
-    <col min="9" max="9" width="82.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="13" width="59.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="73.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="103.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="53.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="82.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="38.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,16 +754,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -771,7 +772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -785,13 +786,13 @@
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="7">
         <v>7900</v>
@@ -803,12 +804,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
+      <c r="B3" s="6">
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>18</v>
@@ -817,13 +818,13 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H3" s="7">
         <v>400</v>
@@ -835,12 +836,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
+      <c r="B4" s="6">
+        <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>26</v>
@@ -849,13 +850,13 @@
         <v>27</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="8">
         <v>2</v>
@@ -867,7 +868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -891,81 +892,83 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="9"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="9"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="9"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="5" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>11</v>
@@ -975,45 +978,45 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="5" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="9"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="9"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>11</v>
@@ -1023,141 +1026,141 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="9"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="9"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="9"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="9"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="9"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="10" t="s">
-        <v>38</v>
+      <c r="E19" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="9"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="9"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="9"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="5" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>11</v>
@@ -1167,15 +1170,15 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7"/>
@@ -1183,15 +1186,15 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7"/>
@@ -1199,15 +1202,15 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="8"/>
@@ -1215,13 +1218,13 @@
       <c r="I25" s="5"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F26" s="7">
         <v>2</v>
@@ -1231,215 +1234,215 @@
       <c r="I26" s="5"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="5" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
       <c r="I27" s="5"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
       <c r="I28" s="5"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
       <c r="I29" s="5"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
       <c r="I30" s="5"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
       <c r="I31" s="5"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
       <c r="I32" s="5"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
       <c r="I33" s="5"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
       <c r="I34" s="5"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
       <c r="I35" s="5"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
       <c r="I36" s="5"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
       <c r="I37" s="5"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
       <c r="I38" s="5"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
       <c r="I39" s="5"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1451,7 +1454,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1463,7 +1466,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1475,7 +1478,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -1487,7 +1490,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -1499,7 +1502,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1511,7 +1514,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1523,7 +1526,7 @@
       <c r="I46" s="5"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1535,7 +1538,7 @@
       <c r="I47" s="5"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1547,7 +1550,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1559,7 +1562,7 @@
       <c r="I49" s="5"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -1571,7 +1574,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1583,7 +1586,7 @@
       <c r="I51" s="5"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -1595,7 +1598,7 @@
       <c r="I52" s="5"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -1607,7 +1610,7 @@
       <c r="I53" s="5"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -1619,7 +1622,7 @@
       <c r="I54" s="5"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="8"/>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
@@ -1631,7 +1634,7 @@
       <c r="I55" s="5"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -1643,7 +1646,7 @@
       <c r="I56" s="5"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -1655,7 +1658,7 @@
       <c r="I57" s="5"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -1667,7 +1670,7 @@
       <c r="I58" s="5"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -1679,7 +1682,7 @@
       <c r="I59" s="5"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -1691,7 +1694,7 @@
       <c r="I60" s="5"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -1703,7 +1706,7 @@
       <c r="I61" s="5"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -1715,7 +1718,7 @@
       <c r="I62" s="5"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -1727,7 +1730,7 @@
       <c r="I63" s="5"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -1739,7 +1742,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -1751,7 +1754,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -1763,7 +1766,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -1775,7 +1778,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -1787,7 +1790,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -1799,7 +1802,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -1811,7 +1814,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -1823,7 +1826,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -1835,7 +1838,7 @@
       <c r="I72" s="5"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -1847,7 +1850,7 @@
       <c r="I73" s="5"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -1859,7 +1862,7 @@
       <c r="I74" s="5"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="8"/>
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
@@ -1871,7 +1874,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -1883,7 +1886,7 @@
       <c r="I76" s="5"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -1895,7 +1898,7 @@
       <c r="I77" s="5"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -1907,7 +1910,7 @@
       <c r="I78" s="5"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -1919,7 +1922,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -1931,7 +1934,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -1943,7 +1946,7 @@
       <c r="I81" s="5"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -1955,7 +1958,7 @@
       <c r="I82" s="5"/>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -1967,7 +1970,7 @@
       <c r="I83" s="5"/>
       <c r="J83" s="7"/>
     </row>
-    <row r="84" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -1979,7 +1982,7 @@
       <c r="I84" s="5"/>
       <c r="J84" s="7"/>
     </row>
-    <row r="85" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -1991,7 +1994,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="7"/>
     </row>
-    <row r="86" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -2003,7 +2006,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="7"/>
     </row>
-    <row r="87" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -2015,7 +2018,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="7"/>
     </row>
-    <row r="88" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -2027,7 +2030,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="7"/>
     </row>
-    <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -2039,7 +2042,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="7"/>
     </row>
-    <row r="90" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -2051,7 +2054,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="7"/>
     </row>
-    <row r="91" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -2063,7 +2066,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="7"/>
     </row>
-    <row r="92" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -2075,7 +2078,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="7"/>
     </row>
-    <row r="93" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -2087,7 +2090,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="7"/>
     </row>
-    <row r="94" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -2099,7 +2102,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="7"/>
     </row>
-    <row r="95" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="8"/>
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
@@ -2111,7 +2114,7 @@
       <c r="I95" s="5"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="8"/>
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
@@ -2123,7 +2126,7 @@
       <c r="I96" s="5"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="8"/>
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
@@ -2135,7 +2138,7 @@
       <c r="I97" s="5"/>
       <c r="J97" s="7"/>
     </row>
-    <row r="98" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="8"/>
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
@@ -2147,7 +2150,7 @@
       <c r="I98" s="5"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="8"/>
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
@@ -2159,7 +2162,7 @@
       <c r="I99" s="5"/>
       <c r="J99" s="7"/>
     </row>
-    <row r="100" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
@@ -2171,7 +2174,7 @@
       <c r="I100" s="5"/>
       <c r="J100" s="7"/>
     </row>
-    <row r="101" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="8"/>
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
@@ -2183,7 +2186,7 @@
       <c r="I101" s="5"/>
       <c r="J101" s="7"/>
     </row>
-    <row r="102" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="8"/>
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
@@ -2195,7 +2198,7 @@
       <c r="I102" s="5"/>
       <c r="J102" s="7"/>
     </row>
-    <row r="103" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="8"/>
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
@@ -2207,7 +2210,7 @@
       <c r="I103" s="5"/>
       <c r="J103" s="7"/>
     </row>
-    <row r="104" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="8"/>
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
@@ -2219,7 +2222,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="8"/>
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
@@ -2231,7 +2234,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="7"/>
     </row>
-    <row r="106" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="8"/>
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
@@ -2243,7 +2246,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="7"/>
     </row>
-    <row r="107" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="8"/>
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
@@ -2255,7 +2258,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="7"/>
     </row>
-    <row r="108" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="8"/>
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
@@ -2267,7 +2270,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="7"/>
     </row>
-    <row r="109" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="8"/>
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
@@ -2279,7 +2282,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="7"/>
     </row>
-    <row r="110" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="8"/>
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>

--- a/(UEL) cube_C3D8T_multiphysics/processing_input_notched_plate/properties.xlsx
+++ b/(UEL) cube_C3D8T_multiphysics/processing_input_notched_plate/properties.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
   <si>
     <t>field_descriptions</t>
   </si>
@@ -49,12 +49,12 @@
     <t>mech_field (1 - ON, 0 - OFF)</t>
   </si>
   <si>
+    <t>UMAT_model (1 - elastic, 2 - isotropic vM, 3 - enHill48)</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>UMAT_model (1 - elastic, 2 - isotropic vM, 3 - enHill48)</t>
-  </si>
-  <si>
     <t>Equilibrium equation (1 - Oriani's equation | 2 - McNabb-Foster's equation)</t>
   </si>
   <si>
@@ -70,28 +70,40 @@
     <t>hydro_field (1 - ON, 0 - OFF)</t>
   </si>
   <si>
+    <t>scaling_factor - SFD (dimless)</t>
+  </si>
+  <si>
+    <t>1.0e0</t>
+  </si>
+  <si>
+    <t>Critical energy release rate without hydrogen - Gc0 (N*m/m^2)</t>
+  </si>
+  <si>
+    <t>405.0e3</t>
+  </si>
+  <si>
+    <t>temp_field (1 - ON, 0 - OFF)</t>
+  </si>
+  <si>
     <t>Young's modulus - E (Pa)</t>
   </si>
   <si>
     <t>210.0e+9</t>
   </si>
   <si>
-    <t>scaling_factor - SFD (dimless)</t>
-  </si>
-  <si>
-    <t>1.0e0</t>
+    <t>crystal_structure (1 - BCC | 2 - FCC)</t>
   </si>
   <si>
     <t>Specific heat - cp_temp (N*m/(kg*K))</t>
   </si>
   <si>
-    <t>Critical energy release rate without hydrogen - Gc0 (N*m/m^2)</t>
-  </si>
-  <si>
-    <t>405.0e3</t>
-  </si>
-  <si>
-    <t>temp_field (1 - ON, 0 - OFF)</t>
+    <t>Well-conditioning parameter - xkap (dimless)</t>
+  </si>
+  <si>
+    <t>1.0e-7</t>
+  </si>
+  <si>
+    <t>damage_field (1 - ON, 0 - OFF)</t>
   </si>
   <si>
     <t>Poisson ratio - nu (dimless)</t>
@@ -100,40 +112,28 @@
     <t>0.3e0</t>
   </si>
   <si>
-    <t>crystal_structure (1 - BCC | 2 - FCC)</t>
+    <t>Lattice parameter for BCC - a_lattice_BCC (m)</t>
+  </si>
+  <si>
+    <t>2.866e-10</t>
   </si>
   <si>
     <t>Conductivity - k_temp (N/(s*K))</t>
   </si>
   <si>
-    <t>Well-conditioning parameter - xkap (dimless)</t>
-  </si>
-  <si>
-    <t>1.0e-7</t>
-  </si>
-  <si>
-    <t>damage_field (1 - ON, 0 - OFF)</t>
-  </si>
-  <si>
-    <t>Lattice parameter for BCC - a_lattice_BCC (m)</t>
-  </si>
-  <si>
-    <t>2.866e-10</t>
-  </si>
-  <si>
     <t>Fitting slope to DFT data X - chi_DFT (dimless)</t>
   </si>
   <si>
     <t>0.89e0</t>
   </si>
   <si>
+    <t>Lattice parameter for FCC - a_lattice_FCC (m)</t>
+  </si>
+  <si>
+    <t>3.65e-10</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Lattice parameter for FCC - a_lattice_FCC (m)</t>
-  </si>
-  <si>
-    <t>3.65e-10</t>
   </si>
   <si>
     <t>Gibbs free energy difference between the decohering interface and the surrounding material - delta_g_b0 (N*m/mol)</t>
@@ -300,7 +300,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,12 +318,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -387,26 +381,26 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -776,25 +770,25 @@
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>7900</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -814,77 +808,85 @@
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="7">
-        <v>400</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="H4" s="6">
+        <v>400</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8">
+        <v>0.00002</v>
+      </c>
       <c r="I5" s="5" t="s">
         <v>35</v>
       </c>
@@ -893,20 +895,20 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
         <v>40</v>
       </c>
@@ -915,290 +917,296 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="8"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9"/>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="9"/>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="9"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="11" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="9"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="9"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="9"/>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="9"/>
+      <c r="F23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="9"/>
+      <c r="F24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
@@ -1210,13 +1218,13 @@
       <c r="E25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>11</v>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="7"/>
+      <c r="J25" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="8"/>
@@ -1226,13 +1234,13 @@
       <c r="E26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>2</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="7"/>
+      <c r="J26" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="8"/>
@@ -1242,13 +1250,13 @@
       <c r="E27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="7"/>
+      <c r="J27" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="8"/>
@@ -1258,13 +1266,13 @@
       <c r="E28" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="7" t="s">
         <v>75</v>
       </c>
       <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="10"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="7"/>
+      <c r="J28" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="8"/>
@@ -1274,13 +1282,13 @@
       <c r="E29" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>21</v>
+      <c r="F29" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="10"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="7"/>
+      <c r="J29" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="8"/>
@@ -1290,13 +1298,13 @@
       <c r="E30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="7"/>
+      <c r="J30" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="8"/>
@@ -1306,13 +1314,13 @@
       <c r="E31" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>21</v>
+      <c r="F31" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="7"/>
+      <c r="J31" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="8"/>
@@ -1322,13 +1330,13 @@
       <c r="E32" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>81</v>
       </c>
       <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="7"/>
+      <c r="J32" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="8"/>
@@ -1338,13 +1346,13 @@
       <c r="E33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="7" t="s">
         <v>83</v>
       </c>
       <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="7"/>
+      <c r="J33" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="8"/>
@@ -1354,13 +1362,13 @@
       <c r="E34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>21</v>
+      <c r="F34" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="7"/>
+      <c r="J34" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="8"/>
@@ -1370,13 +1378,13 @@
       <c r="E35" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="7" t="s">
         <v>81</v>
       </c>
       <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="7"/>
+      <c r="J35" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="8"/>
@@ -1386,13 +1394,13 @@
       <c r="E36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="10"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="7"/>
+      <c r="J36" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="8"/>
@@ -1402,13 +1410,13 @@
       <c r="E37" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>21</v>
+      <c r="F37" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="7"/>
+      <c r="J37" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="8"/>
@@ -1418,13 +1426,13 @@
       <c r="E38" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="7"/>
+      <c r="J38" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="8"/>
@@ -1434,13 +1442,13 @@
       <c r="E39" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="7"/>
+      <c r="J39" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="8"/>
@@ -1448,11 +1456,11 @@
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="6"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
+      <c r="H40" s="10"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="7"/>
+      <c r="J40" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="8"/>
@@ -1460,11 +1468,11 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="6"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="10"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="7"/>
+      <c r="J41" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="8"/>
@@ -1472,11 +1480,11 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="7"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="10"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="7"/>
+      <c r="J42" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="8"/>
@@ -1484,11 +1492,11 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="6"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="7"/>
+      <c r="J43" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="8"/>
@@ -1496,11 +1504,11 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="6"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="7"/>
+      <c r="J44" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="8"/>
@@ -1508,11 +1516,11 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="6"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="7"/>
+      <c r="J45" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="8"/>
@@ -1520,11 +1528,11 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="7"/>
+      <c r="F46" s="6"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="7"/>
+      <c r="J46" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="8"/>
@@ -1532,11 +1540,11 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="7"/>
+      <c r="F47" s="6"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="7"/>
+      <c r="J47" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="8"/>
@@ -1544,11 +1552,11 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="7"/>
+      <c r="F48" s="6"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="10"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="7"/>
+      <c r="J48" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="8"/>
@@ -1556,11 +1564,11 @@
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="6"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="10"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="7"/>
+      <c r="J49" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="8"/>
@@ -1568,11 +1576,11 @@
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="6"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="10"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="7"/>
+      <c r="J50" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="8"/>
@@ -1580,11 +1588,11 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="7"/>
+      <c r="F51" s="6"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="10"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="7"/>
+      <c r="J51" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="8"/>
@@ -1592,11 +1600,11 @@
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="6"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="10"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="7"/>
+      <c r="J52" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="8"/>
@@ -1604,11 +1612,11 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="6"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="10"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="7"/>
+      <c r="J53" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="8"/>
@@ -1616,23 +1624,23 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="7"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="10"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="7"/>
+      <c r="J54" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="8"/>
-      <c r="B55" s="7"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="7"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="7"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="7"/>
+      <c r="J55" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="8"/>
@@ -1640,11 +1648,11 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="7"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="9"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="7"/>
+      <c r="J56" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="8"/>
@@ -1652,11 +1660,11 @@
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="7"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
+      <c r="H57" s="10"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="7"/>
+      <c r="J57" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="8"/>
@@ -1664,11 +1672,11 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
+      <c r="H58" s="10"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="7"/>
+      <c r="J58" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="8"/>
@@ -1676,11 +1684,11 @@
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="10"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="7"/>
+      <c r="J59" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="8"/>
@@ -1688,11 +1696,11 @@
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="7"/>
+      <c r="F60" s="6"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
+      <c r="H60" s="10"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="7"/>
+      <c r="J60" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="8"/>
@@ -1700,11 +1708,11 @@
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="7"/>
+      <c r="F61" s="6"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
+      <c r="H61" s="10"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="7"/>
+      <c r="J61" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="8"/>
@@ -1712,11 +1720,11 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="7"/>
+      <c r="F62" s="6"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
+      <c r="H62" s="10"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="7"/>
+      <c r="J62" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="8"/>
@@ -1724,11 +1732,11 @@
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="6"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
+      <c r="H63" s="10"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="7"/>
+      <c r="J63" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="8"/>
@@ -1736,11 +1744,11 @@
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="7"/>
+      <c r="F64" s="6"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
+      <c r="H64" s="10"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="7"/>
+      <c r="J64" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="8"/>
@@ -1748,11 +1756,11 @@
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="7"/>
+      <c r="F65" s="6"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
+      <c r="H65" s="10"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="7"/>
+      <c r="J65" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="8"/>
@@ -1760,11 +1768,11 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="7"/>
+      <c r="F66" s="6"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
+      <c r="H66" s="10"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="7"/>
+      <c r="J66" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="8"/>
@@ -1772,11 +1780,11 @@
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
-      <c r="F67" s="7"/>
+      <c r="F67" s="6"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="9"/>
+      <c r="H67" s="10"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="7"/>
+      <c r="J67" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="8"/>
@@ -1784,11 +1792,11 @@
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="6"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="9"/>
+      <c r="H68" s="10"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="7"/>
+      <c r="J68" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="8"/>
@@ -1796,11 +1804,11 @@
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
-      <c r="F69" s="7"/>
+      <c r="F69" s="6"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
+      <c r="H69" s="10"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="7"/>
+      <c r="J69" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="8"/>
@@ -1808,11 +1816,11 @@
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
-      <c r="F70" s="7"/>
+      <c r="F70" s="6"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
+      <c r="H70" s="10"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="7"/>
+      <c r="J70" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="8"/>
@@ -1820,11 +1828,11 @@
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
-      <c r="F71" s="7"/>
+      <c r="F71" s="6"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
+      <c r="H71" s="10"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="7"/>
+      <c r="J71" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="8"/>
@@ -1832,11 +1840,11 @@
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
-      <c r="F72" s="7"/>
+      <c r="F72" s="6"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="9"/>
+      <c r="H72" s="10"/>
       <c r="I72" s="5"/>
-      <c r="J72" s="7"/>
+      <c r="J72" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="8"/>
@@ -1844,11 +1852,11 @@
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
-      <c r="F73" s="7"/>
+      <c r="F73" s="6"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="9"/>
+      <c r="H73" s="10"/>
       <c r="I73" s="5"/>
-      <c r="J73" s="7"/>
+      <c r="J73" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="8"/>
@@ -1856,23 +1864,23 @@
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="6"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="9"/>
+      <c r="H74" s="10"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="7"/>
+      <c r="J74" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="8"/>
-      <c r="B75" s="7"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="7"/>
+      <c r="D75" s="6"/>
       <c r="E75" s="8"/>
-      <c r="F75" s="7"/>
+      <c r="F75" s="6"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="9"/>
+      <c r="H75" s="10"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="7"/>
+      <c r="J75" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="8"/>
@@ -1880,11 +1888,11 @@
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
-      <c r="F76" s="7"/>
+      <c r="F76" s="6"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="9"/>
+      <c r="H76" s="10"/>
       <c r="I76" s="5"/>
-      <c r="J76" s="7"/>
+      <c r="J76" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="8"/>
@@ -1892,11 +1900,11 @@
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
-      <c r="F77" s="7"/>
+      <c r="F77" s="6"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="9"/>
+      <c r="H77" s="10"/>
       <c r="I77" s="5"/>
-      <c r="J77" s="7"/>
+      <c r="J77" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="8"/>
@@ -1904,11 +1912,11 @@
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="7"/>
+      <c r="F78" s="6"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="9"/>
+      <c r="H78" s="10"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="7"/>
+      <c r="J78" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="8"/>
@@ -1916,11 +1924,11 @@
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="7"/>
+      <c r="F79" s="6"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="9"/>
+      <c r="H79" s="10"/>
       <c r="I79" s="5"/>
-      <c r="J79" s="7"/>
+      <c r="J79" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="8"/>
@@ -1928,11 +1936,11 @@
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
-      <c r="F80" s="7"/>
+      <c r="F80" s="6"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="9"/>
+      <c r="H80" s="10"/>
       <c r="I80" s="5"/>
-      <c r="J80" s="7"/>
+      <c r="J80" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="8"/>
@@ -1940,11 +1948,11 @@
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
-      <c r="F81" s="7"/>
+      <c r="F81" s="6"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="9"/>
+      <c r="H81" s="10"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="7"/>
+      <c r="J81" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="8"/>
@@ -1952,11 +1960,11 @@
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
-      <c r="F82" s="7"/>
+      <c r="F82" s="6"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="9"/>
+      <c r="H82" s="10"/>
       <c r="I82" s="5"/>
-      <c r="J82" s="7"/>
+      <c r="J82" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="8"/>
@@ -1964,11 +1972,11 @@
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
-      <c r="F83" s="7"/>
+      <c r="F83" s="6"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="9"/>
+      <c r="H83" s="10"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="7"/>
+      <c r="J83" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="8"/>
@@ -1976,11 +1984,11 @@
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
-      <c r="F84" s="7"/>
+      <c r="F84" s="6"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="9"/>
+      <c r="H84" s="10"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="7"/>
+      <c r="J84" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="8"/>
@@ -1988,11 +1996,11 @@
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
-      <c r="F85" s="7"/>
+      <c r="F85" s="6"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="9"/>
+      <c r="H85" s="10"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="7"/>
+      <c r="J85" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="8"/>
@@ -2000,11 +2008,11 @@
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="7"/>
+      <c r="F86" s="6"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="9"/>
+      <c r="H86" s="10"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="7"/>
+      <c r="J86" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="8"/>
@@ -2012,11 +2020,11 @@
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
-      <c r="F87" s="7"/>
+      <c r="F87" s="6"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="9"/>
+      <c r="H87" s="10"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="7"/>
+      <c r="J87" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="8"/>
@@ -2024,11 +2032,11 @@
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
-      <c r="F88" s="7"/>
+      <c r="F88" s="6"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="9"/>
+      <c r="H88" s="10"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="7"/>
+      <c r="J88" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="8"/>
@@ -2036,11 +2044,11 @@
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
-      <c r="F89" s="7"/>
+      <c r="F89" s="6"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="9"/>
+      <c r="H89" s="10"/>
       <c r="I89" s="5"/>
-      <c r="J89" s="7"/>
+      <c r="J89" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="8"/>
@@ -2048,11 +2056,11 @@
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
-      <c r="F90" s="7"/>
+      <c r="F90" s="6"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="9"/>
+      <c r="H90" s="10"/>
       <c r="I90" s="5"/>
-      <c r="J90" s="7"/>
+      <c r="J90" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="8"/>
@@ -2060,11 +2068,11 @@
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
-      <c r="F91" s="7"/>
+      <c r="F91" s="6"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="9"/>
+      <c r="H91" s="10"/>
       <c r="I91" s="5"/>
-      <c r="J91" s="7"/>
+      <c r="J91" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="8"/>
@@ -2072,11 +2080,11 @@
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
-      <c r="F92" s="7"/>
+      <c r="F92" s="6"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="9"/>
+      <c r="H92" s="10"/>
       <c r="I92" s="5"/>
-      <c r="J92" s="7"/>
+      <c r="J92" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="8"/>
@@ -2084,11 +2092,11 @@
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
-      <c r="F93" s="7"/>
+      <c r="F93" s="6"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="9"/>
+      <c r="H93" s="10"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="7"/>
+      <c r="J93" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="8"/>
@@ -2096,203 +2104,203 @@
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
-      <c r="F94" s="7"/>
+      <c r="F94" s="6"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="9"/>
+      <c r="H94" s="10"/>
       <c r="I94" s="5"/>
-      <c r="J94" s="7"/>
+      <c r="J94" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="8"/>
-      <c r="B95" s="7"/>
+      <c r="B95" s="6"/>
       <c r="C95" s="8"/>
-      <c r="D95" s="7"/>
+      <c r="D95" s="6"/>
       <c r="E95" s="8"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="6"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="9"/>
+      <c r="H95" s="10"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="7"/>
+      <c r="J95" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="8"/>
-      <c r="B96" s="7"/>
+      <c r="B96" s="6"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="7"/>
+      <c r="D96" s="6"/>
       <c r="E96" s="8"/>
-      <c r="F96" s="7"/>
+      <c r="F96" s="6"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="9"/>
+      <c r="H96" s="10"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="7"/>
+      <c r="J96" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="8"/>
-      <c r="B97" s="7"/>
+      <c r="B97" s="6"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="7"/>
+      <c r="D97" s="6"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="7"/>
+      <c r="F97" s="6"/>
       <c r="G97" s="8"/>
-      <c r="H97" s="9"/>
+      <c r="H97" s="10"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="7"/>
+      <c r="J97" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="8"/>
-      <c r="B98" s="7"/>
+      <c r="B98" s="6"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="7"/>
+      <c r="D98" s="6"/>
       <c r="E98" s="8"/>
-      <c r="F98" s="7"/>
+      <c r="F98" s="6"/>
       <c r="G98" s="8"/>
-      <c r="H98" s="9"/>
+      <c r="H98" s="10"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="7"/>
+      <c r="J98" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="8"/>
-      <c r="B99" s="7"/>
+      <c r="B99" s="6"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="7"/>
+      <c r="D99" s="6"/>
       <c r="E99" s="8"/>
-      <c r="F99" s="7"/>
+      <c r="F99" s="6"/>
       <c r="G99" s="8"/>
-      <c r="H99" s="9"/>
+      <c r="H99" s="10"/>
       <c r="I99" s="5"/>
-      <c r="J99" s="7"/>
+      <c r="J99" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="8"/>
-      <c r="B100" s="7"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="8"/>
-      <c r="D100" s="7"/>
+      <c r="D100" s="6"/>
       <c r="E100" s="8"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="6"/>
       <c r="G100" s="8"/>
-      <c r="H100" s="9"/>
+      <c r="H100" s="10"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="7"/>
+      <c r="J100" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="8"/>
-      <c r="B101" s="7"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="7"/>
+      <c r="D101" s="6"/>
       <c r="E101" s="8"/>
-      <c r="F101" s="7"/>
+      <c r="F101" s="6"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="9"/>
+      <c r="H101" s="10"/>
       <c r="I101" s="5"/>
-      <c r="J101" s="7"/>
+      <c r="J101" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="8"/>
-      <c r="B102" s="7"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="7"/>
+      <c r="D102" s="6"/>
       <c r="E102" s="8"/>
-      <c r="F102" s="7"/>
+      <c r="F102" s="6"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="9"/>
+      <c r="H102" s="10"/>
       <c r="I102" s="5"/>
-      <c r="J102" s="7"/>
+      <c r="J102" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="8"/>
-      <c r="B103" s="7"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="7"/>
+      <c r="D103" s="6"/>
       <c r="E103" s="8"/>
-      <c r="F103" s="7"/>
+      <c r="F103" s="6"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="9"/>
+      <c r="H103" s="10"/>
       <c r="I103" s="5"/>
-      <c r="J103" s="7"/>
+      <c r="J103" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="8"/>
-      <c r="B104" s="7"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="7"/>
+      <c r="D104" s="6"/>
       <c r="E104" s="8"/>
-      <c r="F104" s="7"/>
+      <c r="F104" s="6"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="9"/>
+      <c r="H104" s="10"/>
       <c r="I104" s="5"/>
-      <c r="J104" s="7"/>
+      <c r="J104" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="8"/>
-      <c r="B105" s="7"/>
+      <c r="B105" s="6"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="7"/>
+      <c r="D105" s="6"/>
       <c r="E105" s="8"/>
-      <c r="F105" s="7"/>
+      <c r="F105" s="6"/>
       <c r="G105" s="8"/>
-      <c r="H105" s="9"/>
+      <c r="H105" s="10"/>
       <c r="I105" s="5"/>
-      <c r="J105" s="7"/>
+      <c r="J105" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="8"/>
-      <c r="B106" s="7"/>
+      <c r="B106" s="6"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="7"/>
+      <c r="D106" s="6"/>
       <c r="E106" s="8"/>
-      <c r="F106" s="7"/>
+      <c r="F106" s="6"/>
       <c r="G106" s="8"/>
-      <c r="H106" s="9"/>
+      <c r="H106" s="10"/>
       <c r="I106" s="5"/>
-      <c r="J106" s="7"/>
+      <c r="J106" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="8"/>
-      <c r="B107" s="7"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="7"/>
+      <c r="D107" s="6"/>
       <c r="E107" s="8"/>
-      <c r="F107" s="7"/>
+      <c r="F107" s="6"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="9"/>
+      <c r="H107" s="10"/>
       <c r="I107" s="5"/>
-      <c r="J107" s="7"/>
+      <c r="J107" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="8"/>
-      <c r="B108" s="7"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="7"/>
+      <c r="D108" s="6"/>
       <c r="E108" s="8"/>
-      <c r="F108" s="7"/>
+      <c r="F108" s="6"/>
       <c r="G108" s="8"/>
-      <c r="H108" s="9"/>
+      <c r="H108" s="10"/>
       <c r="I108" s="5"/>
-      <c r="J108" s="7"/>
+      <c r="J108" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="8"/>
-      <c r="B109" s="7"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="7"/>
+      <c r="D109" s="6"/>
       <c r="E109" s="8"/>
-      <c r="F109" s="7"/>
+      <c r="F109" s="6"/>
       <c r="G109" s="8"/>
-      <c r="H109" s="9"/>
+      <c r="H109" s="10"/>
       <c r="I109" s="5"/>
-      <c r="J109" s="7"/>
+      <c r="J109" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="8"/>
-      <c r="B110" s="7"/>
+      <c r="B110" s="6"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="7"/>
+      <c r="D110" s="6"/>
       <c r="E110" s="8"/>
-      <c r="F110" s="7"/>
+      <c r="F110" s="6"/>
       <c r="G110" s="8"/>
-      <c r="H110" s="9"/>
+      <c r="H110" s="10"/>
       <c r="I110" s="5"/>
-      <c r="J110" s="7"/>
+      <c r="J110" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
